--- a/data/trans_dic/P1408-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1408-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.01445310750799771</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.03181989309716528</v>
+        <v>0.03181989309716527</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.02058229509073902</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0225967611422038</v>
+        <v>0.02341115235505099</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02098308182268119</v>
+        <v>0.02049843939358443</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.007365655058233357</v>
+        <v>0.007311554397358416</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02178825047687668</v>
+        <v>0.02166990109148702</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01091876113887749</v>
+        <v>0.01103519901183407</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.009394217615604447</v>
+        <v>0.008684829188361587</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.006863989983948888</v>
+        <v>0.006815275146164251</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01945940534237824</v>
+        <v>0.01914243229427111</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01973229994658029</v>
+        <v>0.0197403350998989</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01821206718471323</v>
+        <v>0.0189763678308664</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.008345161649038242</v>
+        <v>0.009266525123623637</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02186335399078471</v>
+        <v>0.02302617167490931</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04964553312300431</v>
+        <v>0.05102292890099198</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05622337931080872</v>
+        <v>0.05317937183077253</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02769729933920989</v>
+        <v>0.02674872185264752</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04791493745988925</v>
+        <v>0.04658072084340154</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03261443514907953</v>
+        <v>0.03331277216827157</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03090886453151464</v>
+        <v>0.03098148144117401</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02616803040380063</v>
+        <v>0.02647541349117383</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03661676776121522</v>
+        <v>0.03577594925829979</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03741808017238293</v>
+        <v>0.03746800179211109</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0364401798492003</v>
+        <v>0.0371972875967229</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02192589691146994</v>
+        <v>0.02182420001919664</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03759729234885596</v>
+        <v>0.03724844871352156</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03793470559589131</v>
+        <v>0.03779293907432497</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01204797400880768</v>
+        <v>0.01179962593573783</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01288437327241865</v>
+        <v>0.01390329266382558</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0157008462853989</v>
+        <v>0.01497553982064124</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01699536773701202</v>
+        <v>0.01688299030230576</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.004917028377429149</v>
+        <v>0.004261102077368667</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.007713453659236405</v>
+        <v>0.007372265594053307</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01850537662615844</v>
+        <v>0.01825059395658146</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03011225896215034</v>
+        <v>0.03012923396737045</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.009550098319070287</v>
+        <v>0.009800295255469925</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01229591961593843</v>
+        <v>0.01247623618693852</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01885921390012651</v>
+        <v>0.01875652969895929</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06788259263791363</v>
+        <v>0.06786071788793602</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03037573794957857</v>
+        <v>0.0310302489893843</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03128174298419346</v>
+        <v>0.03287222425887299</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03425992551346321</v>
+        <v>0.03211609970634713</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03917042309641044</v>
+        <v>0.03934984151078553</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01694903221437423</v>
+        <v>0.01736474868354037</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02208022699449222</v>
+        <v>0.02203687505946063</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03820233442165665</v>
+        <v>0.03864813492282045</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04878773060081047</v>
+        <v>0.04830520976794932</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02017471907981671</v>
+        <v>0.02070718510287549</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0240870409715877</v>
+        <v>0.02490292882396634</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03158392172581816</v>
+        <v>0.03227429810052067</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02352523961170739</v>
+        <v>0.02326471994104499</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01109552292386739</v>
+        <v>0.009635187586454886</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.008109360063338244</v>
+        <v>0.008678722811077828</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01447138933373547</v>
+        <v>0.01346014406734098</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02029045423203004</v>
+        <v>0.02028618893324121</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0040897231746434</v>
+        <v>0.004071808032818758</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.009440013630881101</v>
+        <v>0.009491276010156077</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01157652285764192</v>
+        <v>0.01173874508654068</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02510256850553483</v>
+        <v>0.02363786641357469</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.008803301252882324</v>
+        <v>0.009020081648688458</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.011137487836238</v>
+        <v>0.01094663833452077</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01451618787990403</v>
+        <v>0.01476542543272254</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0519315652148972</v>
+        <v>0.05343684643123554</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03203575915342637</v>
+        <v>0.03281216698153964</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02810893245552626</v>
+        <v>0.02871221645799861</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03550492126261003</v>
+        <v>0.03384506224623932</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04581714147537936</v>
+        <v>0.04603505513128723</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.01874469156307147</v>
+        <v>0.02031532365477147</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02860267270486248</v>
+        <v>0.029268766743368</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02972372319223394</v>
+        <v>0.03111810179455527</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04463967577932883</v>
+        <v>0.04321812089725616</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02288947677753734</v>
+        <v>0.02179444862856236</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02549247806496449</v>
+        <v>0.02490954501641758</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02919161087331736</v>
+        <v>0.0287671321188354</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.02409863469981879</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.02610593261710371</v>
+        <v>0.0261059326171037</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.02968728953621036</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02964464521039267</v>
+        <v>0.02969193963390466</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.009290207249272408</v>
+        <v>0.009647193238274638</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01544370117189197</v>
+        <v>0.01598025310094159</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01854299422613501</v>
+        <v>0.01788519489754582</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02051556625306066</v>
+        <v>0.02087331986760417</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.007080573416767095</v>
+        <v>0.006565533606674232</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.003115818155294137</v>
+        <v>0.003187193473852681</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02278665980543539</v>
+        <v>0.022464572723897</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02725127102806536</v>
+        <v>0.02723411713359022</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.009759562291269208</v>
+        <v>0.009698349897909067</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01020563270140994</v>
+        <v>0.01059522308838327</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02206457377717209</v>
+        <v>0.02275650363394511</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05345659373105294</v>
+        <v>0.05401148640225296</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02507955694877634</v>
+        <v>0.02589401418903134</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03532590097072875</v>
+        <v>0.03434870868776184</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03553614258272032</v>
+        <v>0.03645299325025095</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04205983753987094</v>
+        <v>0.04120902930353009</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02105972480579844</v>
+        <v>0.02032026018385996</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01484075107603766</v>
+        <v>0.01540891757626968</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04072313170968548</v>
+        <v>0.04020814200109996</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04284153285505632</v>
+        <v>0.04371231514117124</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02043567634008901</v>
+        <v>0.02014350802346858</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02089443845128063</v>
+        <v>0.02181349068625061</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03433774449009908</v>
+        <v>0.03459672339468407</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03529017512606692</v>
+        <v>0.03543655544429158</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01618282265822354</v>
+        <v>0.01692857301287009</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01556045674316667</v>
+        <v>0.01528687877289613</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02071917958777696</v>
+        <v>0.02072756627278089</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0220932539261662</v>
+        <v>0.02187867131907256</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.008822198592977405</v>
+        <v>0.008641928969829404</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.009109566476428365</v>
+        <v>0.009065888822046553</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02145847028966737</v>
+        <v>0.02144272346154356</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02999706534123199</v>
+        <v>0.03018530992542486</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01380664161697903</v>
+        <v>0.01370362052574704</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01362926335875835</v>
+        <v>0.01310288322899035</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02243502385861763</v>
+        <v>0.02254725650629072</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04811509746835873</v>
+        <v>0.04873670325254809</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02673541966862198</v>
+        <v>0.02733105396308802</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02526755917797871</v>
+        <v>0.02492546581309908</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03057654291755827</v>
+        <v>0.0307157390589978</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03340211741436706</v>
+        <v>0.03325608979554518</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01626365166166996</v>
+        <v>0.01613329100467435</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.01695149075146733</v>
+        <v>0.01734723536674776</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03044542360832894</v>
+        <v>0.03130584920016689</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03880220591986967</v>
+        <v>0.03867985863282864</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.0201925782427997</v>
+        <v>0.0202664452724272</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01959394714112176</v>
+        <v>0.01934290980531278</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.02903154243972755</v>
+        <v>0.02933774895067725</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>15682</v>
+        <v>16248</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>14761</v>
+        <v>14420</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4970</v>
+        <v>4934</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>15049</v>
+        <v>14968</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7516</v>
+        <v>7596</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6548</v>
+        <v>6054</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4618</v>
+        <v>4586</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>14248</v>
+        <v>14016</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>27277</v>
+        <v>27288</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>25506</v>
+        <v>26577</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>11246</v>
+        <v>12488</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>31109</v>
+        <v>32764</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>34455</v>
+        <v>35411</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>39551</v>
+        <v>37410</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>18690</v>
+        <v>18050</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>33095</v>
+        <v>32174</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>22450</v>
+        <v>22931</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>21545</v>
+        <v>21596</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>17607</v>
+        <v>17814</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>26810</v>
+        <v>26195</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>51725</v>
+        <v>51794</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>51035</v>
+        <v>52096</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>29548</v>
+        <v>29411</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>53497</v>
+        <v>53001</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>36486</v>
+        <v>36349</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>12264</v>
+        <v>12011</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13173</v>
+        <v>14215</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>16469</v>
+        <v>15708</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>16458</v>
+        <v>16349</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>5054</v>
+        <v>4380</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>8044</v>
+        <v>7689</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>19794</v>
+        <v>19521</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>58122</v>
+        <v>58155</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>19537</v>
+        <v>20049</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>25395</v>
+        <v>25768</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>39954</v>
+        <v>39736</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>65289</v>
+        <v>65268</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>30921</v>
+        <v>31587</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>31983</v>
+        <v>33610</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>35936</v>
+        <v>33687</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>37932</v>
+        <v>38106</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>17420</v>
+        <v>17847</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>23028</v>
+        <v>22983</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>40862</v>
+        <v>41339</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>94170</v>
+        <v>93238</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>41272</v>
+        <v>42361</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>49748</v>
+        <v>51433</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>66912</v>
+        <v>68374</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>15962</v>
+        <v>15785</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>8406</v>
+        <v>7300</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6159</v>
+        <v>6592</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>11595</v>
+        <v>10784</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>13875</v>
+        <v>13873</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3178</v>
+        <v>3165</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7411</v>
+        <v>7451</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>9364</v>
+        <v>9495</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>34198</v>
+        <v>32203</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>13511</v>
+        <v>13844</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>17203</v>
+        <v>16908</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>23372</v>
+        <v>23773</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>35236</v>
+        <v>36257</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>24271</v>
+        <v>24859</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>21350</v>
+        <v>21808</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>28447</v>
+        <v>27117</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>31332</v>
+        <v>31481</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>14568</v>
+        <v>15789</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>22453</v>
+        <v>22976</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>24042</v>
+        <v>25170</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>60815</v>
+        <v>58878</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>35131</v>
+        <v>33450</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>39375</v>
+        <v>38474</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>47001</v>
+        <v>46317</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>27932</v>
+        <v>27976</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8805</v>
+        <v>9143</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>14480</v>
+        <v>14983</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>18338</v>
+        <v>17688</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>21308</v>
+        <v>21679</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>7448</v>
+        <v>6906</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3252</v>
+        <v>3327</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>25458</v>
+        <v>25098</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>53980</v>
+        <v>53946</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>19516</v>
+        <v>19393</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>20221</v>
+        <v>20993</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>46472</v>
+        <v>47930</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>50368</v>
+        <v>50891</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>23769</v>
+        <v>24541</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>33120</v>
+        <v>32204</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>35144</v>
+        <v>36051</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>43684</v>
+        <v>42800</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>22153</v>
+        <v>21375</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>15490</v>
+        <v>16084</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>45497</v>
+        <v>44922</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>84862</v>
+        <v>86587</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>40864</v>
+        <v>40280</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>41399</v>
+        <v>43220</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>72322</v>
+        <v>72868</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>115630</v>
+        <v>116109</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>55455</v>
+        <v>58010</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>52818</v>
+        <v>51889</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>73135</v>
+        <v>73164</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>74657</v>
+        <v>73932</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>31353</v>
+        <v>30713</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>32289</v>
+        <v>32134</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>79995</v>
+        <v>79936</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>199653</v>
+        <v>200906</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>96380</v>
+        <v>95661</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>94572</v>
+        <v>90919</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>162827</v>
+        <v>163641</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>157651</v>
+        <v>159688</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>91616</v>
+        <v>93657</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>85767</v>
+        <v>84606</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>107929</v>
+        <v>108421</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>112872</v>
+        <v>112379</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>57800</v>
+        <v>57336</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>60085</v>
+        <v>61488</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>113497</v>
+        <v>116705</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>258257</v>
+        <v>257443</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>140958</v>
+        <v>141474</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>135960</v>
+        <v>134218</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>210702</v>
+        <v>212925</v>
       </c>
     </row>
     <row r="24">
